--- a/output/fit_clients/fit_round_13.xlsx
+++ b/output/fit_clients/fit_round_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8232296173.261975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00441843756720058</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.175528157693833</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9131610425188202</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-4.175528157693833</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5513268878.665924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004673813981788205</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.347249448467326</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9601090549492411</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.347249448467326</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4782597805.019389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002500038259350437</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.33007797550122</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9722104780997094</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.33007797550122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3635890066.859891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004302064588676216</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8894336038055021</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.300281284747373</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9670878666397579</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.300281284747373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6341413325.611828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001929474036441308</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.265122861980188</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7795766064019719</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.265122861980188</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8532737092.356034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008483243224255093</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.05265933634680816</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7.491496284633864</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1254100952012136</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-7.491496284633864</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7483759356.624888</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002906324194200374</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.281496668679029</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9612154799420326</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.281496668679029</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6254362064.628344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003726721009452359</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.390559252260622</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9569880962773649</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.390559252260622</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4033351249.898732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005075580547229678</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.343812324489011</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9884736900883482</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.343812324489011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4263907007.903969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009798930331488508</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7551161947421944</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.798038307396918</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8740672766347114</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.798038307396918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7118098739.617841</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002131224352116939</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.465175087026672</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.012903583834229</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.465175087026672</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5656092472.523947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003605199691213886</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.388954162598624</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.045755752639462</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.388954162598624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6444744718.826249</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00351240949343727</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.36377565305125</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9217006818467885</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-5.36377565305125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6848907032.739104</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004881954284561742</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1458840533144621</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929344</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.681200404350789</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.21670208937655</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.681200404350789</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7424778068.337265</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004646075216967371</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.489601855660646</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.898121313491911</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.489601855660646</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6196930236.129413</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002897508599207122</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.292138774519011</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9623206328271569</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.292138774519011</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6381698851.26666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008726615732092364</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.474698749256443</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9897475743625723</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.474698749256443</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4577987393.362713</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002385061637769028</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.426707711021462</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9145398375870667</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.426707711021462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4661734200.408647</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001381493240179618</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.310098506240281</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8421574965104746</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.310098506240281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5500196572.032129</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004363431082026434</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.3491366383900079</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.586428875447862</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.869254081449388</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.586428875447862</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5294073015.930018</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003989096193239431</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.626309387241976</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9044552770158827</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.626309387241976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6919667271.532853</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00130442921674457</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.30821141097034</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9411008299625391</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.30821141097034</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6000982721.972815</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003044886916880085</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.092050654914131</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5189034571.391041</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004085730656264355</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.4809376668746</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9145398375870667</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.4809376668746</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3922015274.38621</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001061636796624554</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.204550266173421</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8840285625518441</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-5.204550266173421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7790287211.410183</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003767401822433064</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.03322763432165431</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.444651662754992</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.4139973961781539</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.444651662754992</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6188458196.677459</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005432550883246258</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9470728515406146</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.492303517111478</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.097082879166035</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.492303517111478</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7478103709.520705</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001559356564787546</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.478135598886607</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.007643122698155</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.478135598886607</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7531693012.660282</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002625312896956858</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.243055035704909</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9342997181034444</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.243055035704909</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5912273050.041739</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003327265859074967</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.1452653599329914</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.926203318783108</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-0.1750483894172855</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.926203318783108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5026054043.903976</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009351944547691831</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.659995315883074</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.971116580149983</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.659995315883074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>4816623659.397884</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003032351344194991</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.616594410129206</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9103122297021028</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-7.616594410129206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5086256139.256771</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004117362564850977</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8844743898822535</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6166917164.535083</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001936913271862159</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.516433878377052</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.00255168384109</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.516433878377052</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6748670214.451159</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002714614284550652</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.462105363465872</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.931386971056437</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.462105363465872</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4340658122.465122</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004309537684439483</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3040554836782332</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.546259209829329</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.6877990757127066</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-5.546259209829329</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4619409867.216661</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004830159227995254</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9727753693702348</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.771089206941762</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.159169170255948</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.771089206941762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5286233179.11717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002175117876597363</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.717009683055647</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9310922522871867</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-7.717009683055647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6836047988.405581</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003529068357103992</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.712822514794438</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.058254770338712</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.712822514794438</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6092502252.323092</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001199508301966175</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.393896471685865</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9489738576740938</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-5.393896471685865</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6211101649.369069</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005421538422221122</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.270692841156401</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.017092363594818</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-5.270692841156401</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5079640763.074496</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003347709177815442</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.49255606127903</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9567821031674468</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-5.49255606127903</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7418891578.274069</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002207021916869921</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.540755842847905</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9521210865892011</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.540755842847905</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5021950472.274355</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001272302620793491</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.655720052455827</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9906219455302868</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.655720052455827</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10105650414.2081</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004150798092416369</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8006218624703492</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7.547635950728547</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.049101919602418</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-7.547635950728547</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9350146918.489025</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002598182610669961</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.014341125351327</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7074269145.325516</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002785431452897613</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.570537434863664</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9993660362042538</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.570537434863664</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5478845319.303761</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005563154592314128</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.597618096054126</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.7960172903525875</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.597618096054126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5795257499.65156</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002725403498747705</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.445795454325429</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.017092363594818</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.445795454325429</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5268949772.257121</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003895311202050573</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.1394732194368595</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.920680358716328</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-0.2133612099002161</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.920680358716328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6384625343.04537</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001848962702984242</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8488881535143316</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.353227288400427</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.031712964946144</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.353227288400427</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5178013474.49227</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003517878567095857</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.435649806978676</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.225224987331968</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.435649806978676</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5684977854.019676</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00440796989905096</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8719155933745175</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.385520140048419</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9907950729224999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.385520140048419</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6405011126.096586</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004101018352915747</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.363995985450953</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9545576933701745</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-5.363995985450953</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5317281767.592181</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.00249810800933442</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.558221789257439</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9854425680971602</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-7.558221789257439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6975410426.333831</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003880665628719896</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.37809080220946</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8214756245312821</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.37809080220946</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6755100637.720195</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00194548409850882</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8446261973602569</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.03141648969457</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9030779531201298</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.03141648969457</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5005470768.009548</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003482750040363683</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.38292630781227</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8886031070568552</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.38292630781227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>6062950120.659997</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002940248781814496</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.250983731640774</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.877996293832806</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-5.250983731640774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6050967023.577759</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005684477191339522</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.524771714924189</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9270235743442919</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.524771714924189</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6118603355.019023</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003152927147965781</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.9028303599647427</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.954183857334688</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.135257622272188</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-5.954183857334688</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8831510341.688349</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004502529471396564</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.484724382156704</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.006783534187599</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-7.484724382156704</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3773792095.236279</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005475121228506873</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.481970751294479</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9614205231610384</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-7.481970751294479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6322993049.521042</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00566330561667956</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.973102782414909</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.08307349522612</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-7.973102782414909</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4943669473.342247</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003320281784212895</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.501797454198043</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8118824695461061</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.501797454198043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6558771722.216076</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004050860305005948</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.610591490795888</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9446916957850504</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.610591490795888</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8906372828.467112</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.0026249940862947</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.239665846610767</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7900615099738096</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-5.239665846610767</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4523655957.175618</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001017931558980714</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.445783630412937</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9927655523513823</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.445783630412937</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8314385984.814418</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002535451522290102</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>8.339205441101392</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.952535044225621</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-8.339205441101392</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5137011235.066276</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002882402476568013</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.475617931424662</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8697074824712755</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.475617931424662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5775268592.367775</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001596253056502642</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.519420940663609</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.123535428198574</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-7.519420940663609</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5985369204.747329</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009724323423141656</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.503892284789887</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.017286144385122</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.503892284789887</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6427208038.801907</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004548454581446037</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.45866657987155</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.952535044225621</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.45866657987155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6907144327.000449</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004118064622611555</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.936019181227055</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8251093155927944</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.936019181227055</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7603433589.75281</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00198798087470201</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.509825902399745</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.935225930595271</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.509825902399745</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5441777314.564198</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003782194462398894</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.412519507847096</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9981044280829948</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.412519507847096</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7142226316.283025</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003132627917358175</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.409570919770888</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9623206328271569</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.409570919770888</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8539877621.374698</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002295011270936195</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.343754509544017</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9318101398910557</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.343754509544017</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5123414536.655839</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003448604514736188</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.71782273039087</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9817999814696573</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.71782273039087</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7688740962.969016</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004297805189252274</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.448687668930373</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.019373681496281</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.448687668930373</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7860457509.022303</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004716912356123341</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.601622463160302</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9843633747418984</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-7.601622463160302</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8401364961.296413</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.00333579311669801</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8743914354554634</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>4.350714541604652</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.071641239593592</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-4.350714541604652</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5441625718.229098</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00364413036588247</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.393853981660613</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.967623782424318</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.393853981660613</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4043965536.252645</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002651476604273567</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.361199299616231</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9295259726518963</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.361199299616231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8354912703.918997</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001694646610892138</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.63653706715475</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.032648971506244</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.63653706715475</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4938577024.555264</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001594091275749281</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.837991198627117</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9674200539776358</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.837991198627117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8042565321.958189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003919055131810735</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.306302978970379</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8840285625518441</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-5.306302978970379</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5955092604.989143</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003675509916235765</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.958435738326518</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.89790181549732</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.958435738326518</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6773445245.585194</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002590290824734862</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.302355427199335</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9776616087124432</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-5.302355427199335</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5126840198.287073</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004218896189002444</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.389787246858589</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8721483291481207</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.389787246858589</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4992484855.120473</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003441394737871668</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.926515011863768</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.997709377729195</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.926515011863768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6924154893.794019</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001882302339248736</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4.437879012216905</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4803844614152614</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-4.437879012216905</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4920729470.527843</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.000991337315844547</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.101740735266268</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7650674502.962037</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002824993891988979</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.354605634954447</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.902842787913325</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.354605634954447</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9761204166.710182</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002533397951202907</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>4.471439696027165</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.949885761846374</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-4.471439696027165</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5269554226.500099</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004450221687814683</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.514035003548496</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9263019771410964</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-5.514035003548496</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7035058398.966986</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004801002445176315</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8647594801176792</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.669602720550696</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.016132884784057</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.669602720550696</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3481611868.415083</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004866609462446201</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9792631930256073</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>7.571143113291273</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.268468361595635</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-7.571143113291273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5904391542.131741</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003030551582579355</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.352407249659852</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8110584379819503</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.352407249659852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5785868119.683187</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001248622651273871</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6186129690886251</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.705288236005877</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8957512438055003</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.705288236005877</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_13.xlsx
+++ b/output/fit_clients/fit_round_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8232296173.261975</v>
+        <v>1897159234.267984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00441843756720058</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+        <v>0.09736150570710023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03209975223236679</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>948579598.6415145</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5513268878.665924</v>
+        <v>2185253560.390217</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004673813981788205</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1456006552186483</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03385096484843162</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1092626848.578505</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4782597805.019389</v>
+        <v>4208497613.59283</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002500038259350437</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>0.1294728228801805</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03675060933809794</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2104248835.389515</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3635890066.859891</v>
+        <v>4110338267.273166</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004302064588676216</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1089589241749147</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0452466244916967</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2055169129.750499</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6341413325.611828</v>
+        <v>2531342736.254568</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001929474036441308</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+        <v>0.1117758477745575</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03926398744025537</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1265671339.860906</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2899520057.143822</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09231958869356412</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.031379181983122</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8532737092.356034</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0008483243224255093</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1449760002.693269</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7483759356.624888</v>
+        <v>2991776057.792496</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002906324194200374</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+        <v>0.1790429010582539</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0288333885252663</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1495888085.203763</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6254362064.628344</v>
+        <v>1939328533.795727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003726721009452359</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+        <v>0.1284745143934923</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03251892209490963</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>969664301.587955</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4033351249.898732</v>
+        <v>4292884260.708502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005075580547229678</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1549377402470477</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03983926920423083</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2146442174.581068</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4263907007.903969</v>
+        <v>3953234834.927596</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009798930331488508</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1550309455628912</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04165352821649672</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1976617426.568916</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7118098739.617841</v>
+        <v>2514392999.528432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002131224352116939</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+        <v>0.136051826773024</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04473957564841623</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1257196472.950094</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5656092472.523947</v>
+        <v>3612704795.360157</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003605199691213886</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.07301511354041365</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03091519382673337</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1806352471.969825</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6444744718.826249</v>
+        <v>2786839498.27924</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00351240949343727</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
+        <v>0.1301797665617544</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03086017935345894</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1393419798.659037</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6848907032.739104</v>
+        <v>1161632242.273366</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004881954284561742</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
+        <v>0.08509908343412008</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04691630883411325</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>580816129.5517061</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7424778068.337265</v>
+        <v>2532309428.189854</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004646075216967371</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
+        <v>0.08417370323064118</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03248759597511516</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1266154741.629288</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6196930236.129413</v>
+        <v>4167844325.445401</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002897508599207122</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>0.1176704850667911</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03528581572200686</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2083922188.673085</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6381698851.26666</v>
+        <v>3205350261.119174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008726615732092364</v>
-      </c>
-      <c r="G18" t="b">
+        <v>0.1830220074210423</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02526237389127138</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>3</v>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1602675145.593247</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4577987393.362713</v>
+        <v>995657910.1094739</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002385061637769028</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1589105468777905</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02391017892813664</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>497828982.904941</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4661734200.408647</v>
+        <v>2634630872.049941</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001381493240179618</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1424274419925565</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03125908421085416</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1317315394.335248</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5500196572.032129</v>
+        <v>2485245982.458766</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004363431082026434</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+        <v>0.08772899282051837</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03327462785985832</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1242622980.454305</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5294073015.930018</v>
+        <v>3123199943.323472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003989096193239431</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+        <v>0.08836256243308795</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0388791023359766</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1561600025.49701</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6919667271.532853</v>
+        <v>1061103145.437219</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00130442921674457</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+        <v>0.181382762790044</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04589657246858841</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>530551632.2811447</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6000982721.972815</v>
+        <v>4120288034.80454</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003044886916880085</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
+        <v>0.1391284441231525</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02938717946752595</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2060143976.900422</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5189034571.391041</v>
+        <v>1312261455.170081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004085730656264355</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.1190927537316546</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02147340847887304</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>656130719.2671088</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3922015274.38621</v>
+        <v>1162160628.0515</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001061636796624554</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1155262283120196</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03379042136494707</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>581080325.4190565</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7790287211.410183</v>
+        <v>3912046417.390073</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003767401822433064</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
+        <v>0.1281479360658177</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0259312492281975</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1956023222.863403</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6188458196.677459</v>
+        <v>2383120139.902831</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005432550883246258</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
+        <v>0.1219500491891694</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03217329096059207</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1191560027.209476</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7478103709.520705</v>
+        <v>5059849247.473327</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001559356564787546</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
+        <v>0.1442913130714547</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02988190618910434</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2529924566.637774</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7531693012.660282</v>
+        <v>1844562138.990539</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002625312896956858</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
+        <v>0.1278824635423451</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03403464665182134</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>922281088.9198253</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5912273050.041739</v>
+        <v>1045525104.150415</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003327265859074967</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.1038376593878453</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03438271084262572</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>522762539.569069</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5026054043.903976</v>
+        <v>1782041322.673897</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009351944547691831</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1136307328119626</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03613904174177106</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>891020787.5921434</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>4816623659.397884</v>
+        <v>1901492332.176321</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003032351344194991</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
+        <v>0.1696390459655047</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04292407335975921</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>950746254.9326681</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5086256139.256771</v>
+        <v>984710819.7897912</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004117362564850977</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
+        <v>0.08911567778116609</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02258632484106035</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>492355449.9795271</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6166917164.535083</v>
+        <v>969473909.4094428</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001936913271862159</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
+        <v>0.08838991255078571</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04214467170510539</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>484736979.6648718</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2979865776.572454</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1745664769529691</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01985125585638132</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>3</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6748670214.451159</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.002714614284550652</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
+      <c r="J36" t="n">
+        <v>1489932871.395598</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4340658122.465122</v>
+        <v>2806797681.885151</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004309537684439483</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
+        <v>0.0729073462733642</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02867913812316737</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1403398978.81884</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4619409867.216661</v>
+        <v>2026652235.544858</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004830159227995254</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1173094989298626</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03920955871065718</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1013326092.154023</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5286233179.11717</v>
+        <v>1486659149.403584</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002175117876597363</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1344575685443056</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03195519126059128</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>743329646.7452204</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6836047988.405581</v>
+        <v>1724127077.922365</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003529068357103992</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
+        <v>0.1056723896679895</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04457544435945245</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>862063448.621977</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6092502252.323092</v>
+        <v>2291408934.064071</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001199508301966175</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1481268431667599</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03763013218532545</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1145704512.34948</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6211101649.369069</v>
+        <v>4183144491.325605</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005421538422221122</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>0.119435005225008</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03092403849955273</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2091572287.203885</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5079640763.074496</v>
+        <v>2071082743.406424</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003347709177815442</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
+        <v>0.1554197871573802</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02005378246292578</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1035541463.064198</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7418891578.274069</v>
+        <v>2316151593.883176</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002207021916869921</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
+        <v>0.06532516183204799</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02780464617230001</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1158075965.868142</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5021950472.274355</v>
+        <v>2139606827.783434</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001272302620793491</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1900890470527856</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04913338023828208</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1069803418.49038</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10105650414.2081</v>
+        <v>5315612014.42311</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004150798092416369</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
+        <v>0.1376203142552649</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05904832142221708</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2657806051.735011</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9350146918.489025</v>
+        <v>4486260394.107047</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002598182610669961</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
+        <v>0.1353559618483122</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05462431622525873</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2243130223.426152</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7074269145.325516</v>
+        <v>4392427699.181324</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002785431452897613</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
+        <v>0.1004503721853349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03291931007657625</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2196213860.827527</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5478845319.303761</v>
+        <v>1801362371.403727</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005563154592314128</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1253271183651733</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04308909888687954</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>900681170.3746736</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5795257499.65156</v>
+        <v>2629454505.159924</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002725403498747705</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
+        <v>0.1296385858634383</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04766336467933954</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1314727338.553578</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5268949772.257121</v>
+        <v>1400628247.804735</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003895311202050573</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1579525151868279</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04816375136148612</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>700314142.6644078</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6384625343.04537</v>
+        <v>5127877571.59647</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001848962702984242</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
+        <v>0.1187526803552749</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04969389069833024</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2563938775.55889</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3307670809.428292</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1333333427468157</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02318645536792128</v>
+      </c>
+      <c r="H53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="n">
-        <v>443</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5178013474.49227</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.003517878567095857</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1653835415.508499</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5684977854.019676</v>
+        <v>4059614842.07229</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00440796989905096</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1053777814143495</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03943482172992093</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2029807489.344441</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6405011126.096586</v>
+        <v>3676803740.011002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004101018352915747</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4</v>
+        <v>0.2242065252215462</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03042038916612249</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1838401830.300018</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5317281767.592181</v>
+        <v>1879839264.536705</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00249810800933442</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1066885981211344</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05788338378362572</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>939919618.0471607</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6975410426.333831</v>
+        <v>2825796355.868472</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003880665628719896</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
+        <v>0.1834481665814654</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02698008658620034</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1412898167.393415</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6755100637.720195</v>
+        <v>1407649616.160409</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00194548409850882</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1967239988344835</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03118014954114333</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>703824847.2935483</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5005470768.009548</v>
+        <v>3597824553.418602</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003482750040363683</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
+        <v>0.1160059161519518</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0396602848777925</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1798912271.681602</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>6062950120.659997</v>
+        <v>2655029806.585863</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002940248781814496</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1511829830760989</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03168865941234318</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1327514937.170274</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2931811454.132555</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1690203309102853</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02777834007105219</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="n">
-        <v>488</v>
-      </c>
-      <c r="E61" t="n">
-        <v>6050967023.577759</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.005684477191339522</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1465905713.538205</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6118603355.019023</v>
+        <v>1492922467.796659</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003152927147965781</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
+        <v>0.1630239827983683</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03665854607923569</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>746461215.4849451</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8831510341.688349</v>
+        <v>3961599369.755761</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004502529471396564</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
+        <v>0.09584899313050925</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03131929294318255</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1980799748.525533</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3773792095.236279</v>
+        <v>4669458664.789196</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005475121228506873</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1257140720715136</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02966037801113355</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2334729415.017075</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>527</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5668751297.480227</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1565187667620888</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02489498434136141</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>5</v>
       </c>
-      <c r="D65" t="n">
-        <v>507</v>
-      </c>
-      <c r="E65" t="n">
-        <v>6322993049.521042</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.00566330561667956</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+      <c r="J65" t="n">
+        <v>2834375567.360555</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4943669473.342247</v>
+        <v>3833980609.880343</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003320281784212895</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
+        <v>0.1477800043387725</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0372176991478825</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1916990269.211103</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6558771722.216076</v>
+        <v>2431833330.278825</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004050860305005948</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
+        <v>0.08443093218088381</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03814752367115711</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1215916731.139147</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8906372828.467112</v>
+        <v>4247025469.468546</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0026249940862947</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3</v>
+        <v>0.1027091860893065</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04388396651862986</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2123512745.241972</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4523655957.175618</v>
+        <v>1581993595.684969</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001017931558980714</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.1459828001477229</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03799026774003322</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>790996748.400328</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8314385984.814418</v>
+        <v>2546771024.885671</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002535451522290102</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
+        <v>0.08044537372530612</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04303889696082328</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1273385459.625625</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5137011235.066276</v>
+        <v>4274352469.697382</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002882402476568013</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1366141920142477</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02226939333496622</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2137176286.062109</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5775268592.367775</v>
+        <v>1980976092.925432</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001596253056502642</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
+        <v>0.1037941805159487</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04840518749695839</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>990487995.5245738</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5985369204.747329</v>
+        <v>3029364882.119014</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009724323423141656</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
+        <v>0.1025451348403018</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04376157358993401</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1514682434.002074</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6427208038.801907</v>
+        <v>3635083789.792934</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004548454581446037</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>4</v>
+        <v>0.1678745303032329</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0349627040774312</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1817541905.043892</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6907144327.000449</v>
+        <v>2034447316.626791</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004118064622611555</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
+        <v>0.1332153688020953</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0243808124879866</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1017223618.817137</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7603433589.75281</v>
+        <v>3332261662.153955</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00198798087470201</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
+        <v>0.1060959270147128</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03006571494234051</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1666130787.430643</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5441777314.564198</v>
+        <v>1685853037.462018</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003782194462398894</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.1733851342760737</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01931605109551464</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>842926533.5122868</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7142226316.283025</v>
+        <v>4243401962.999772</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003132627917358175</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>3</v>
+        <v>0.1290775281721685</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04514691299476189</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2121700929.444292</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8539877621.374698</v>
+        <v>1362253957.789797</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002295011270936195</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>3</v>
+        <v>0.1379763536521722</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02915508596974731</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>681126988.6892545</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5123414536.655839</v>
+        <v>4635791379.578074</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003448604514736188</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>4</v>
+        <v>0.09079858752435879</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02660913244577267</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2317895720.497278</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>414</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3560521807.088405</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.09173234352609215</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02171252325924376</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
       </c>
-      <c r="D81" t="n">
-        <v>427</v>
-      </c>
-      <c r="E81" t="n">
-        <v>7688740962.969016</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.004297805189252274</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
+      <c r="J81" t="n">
+        <v>1780260850.059144</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3986772788.009808</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1350334740314167</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02642531254550201</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>7860457509.022303</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004716912356123341</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1993386434.065483</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8401364961.296413</v>
+        <v>2440310958.842126</v>
       </c>
       <c r="F83" t="n">
-        <v>0.00333579311669801</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.1325270422726229</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02766314491732749</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1220155519.232546</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5441625718.229098</v>
+        <v>2494053896.839518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00364413036588247</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.1070268290926356</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03546959008635388</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1247026880.563585</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4043965536.252645</v>
+        <v>2551590902.079684</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002651476604273567</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1272781457577012</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04306499536686641</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1275795461.334825</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8354912703.918997</v>
+        <v>2578341603.771255</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001694646610892138</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>4</v>
+        <v>0.1179013392887978</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01985378352810179</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1289170909.579612</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4938577024.555264</v>
+        <v>1469443097.70886</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001594091275749281</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1167514159566236</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03952003139232121</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>734721673.2083191</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8042565321.958189</v>
+        <v>2266541928.606561</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003919055131810735</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
+        <v>0.1456298932020027</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03960940162689374</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1133270921.79064</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5955092604.989143</v>
+        <v>3460981502.764248</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003675509916235765</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
+        <v>0.1098852416364106</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03917883414527702</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1730490755.311892</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6773445245.585194</v>
+        <v>1499426978.895633</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002590290824734862</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1221326298487843</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04313599547781659</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>749713467.6649435</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5126840198.287073</v>
+        <v>2043808176.382942</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004218896189002444</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>4</v>
+        <v>0.1299365216406914</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05040413804400641</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1021904054.145684</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4992484855.120473</v>
+        <v>2039622167.365034</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003441394737871668</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1060999521260814</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04099671882110999</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1019811032.575991</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6924154893.794019</v>
+        <v>4763565806.633727</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001882302339248736</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4</v>
+        <v>0.0997340905795297</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04693857617590891</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2381782854.253132</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4920729470.527843</v>
+        <v>1898577162.914158</v>
       </c>
       <c r="F94" t="n">
-        <v>0.000991337315844547</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>5</v>
+        <v>0.1671686237440162</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03172159185018932</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>949288566.2572922</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7650674502.962037</v>
+        <v>2784956751.313962</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002824993891988979</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.137931828240817</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03272927899488291</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1392478390.702879</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9761204166.710182</v>
+        <v>2264709563.820081</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002533397951202907</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
+        <v>0.1077017830353695</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0328252898168104</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1132354740.36098</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5269554226.500099</v>
+        <v>4728818039.858311</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004450221687814683</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
+        <v>0.1680231637827157</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02723050200817464</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2364409134.495702</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7035058398.966986</v>
+        <v>3787500339.489137</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004801002445176315</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>5</v>
+        <v>0.1199416650845419</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03007970767303446</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1893750207.504936</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3481611868.415083</v>
+        <v>3399054122.85564</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004866609462446201</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1392060543993859</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02873975481636418</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1699527076.063055</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5904391542.131741</v>
+        <v>4545372376.454228</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003030551582579355</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1103314900944708</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02572486116308734</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2272686302.060187</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5785868119.683187</v>
+        <v>3465305897.594891</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001248622651273871</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>4</v>
+        <v>0.1473220227559886</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05285063347922837</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1732653099.06307</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_13.xlsx
+++ b/output/fit_clients/fit_round_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1897159234.267984</v>
+        <v>2162715869.089673</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09736150570710023</v>
+        <v>0.104426350184182</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03209975223236679</v>
+        <v>0.03406272401583172</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>948579598.6415145</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2185253560.390217</v>
+        <v>2448165395.63764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1456006552186483</v>
+        <v>0.1392199432682245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03385096484843162</v>
+        <v>0.04734483237308896</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1092626848.578505</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4208497613.59283</v>
+        <v>3956542567.69032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1294728228801805</v>
+        <v>0.1604877909222654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03675060933809794</v>
+        <v>0.02307567968570255</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2104248835.389515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4110338267.273166</v>
+        <v>3865796356.330954</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1089589241749147</v>
+        <v>0.08338282630749221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0452466244916967</v>
+        <v>0.04693262998887194</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2055169129.750499</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2531342736.254568</v>
+        <v>2217205358.906418</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1117758477745575</v>
+        <v>0.1479592368315834</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03926398744025537</v>
+        <v>0.05479937410495677</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1265671339.860906</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2899520057.143822</v>
+        <v>2797184924.17574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09231958869356412</v>
+        <v>0.06591531145855907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.031379181983122</v>
+        <v>0.03996354294352483</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1449760002.693269</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2991776057.792496</v>
+        <v>2870341719.76129</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1790429010582539</v>
+        <v>0.2140594348592587</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0288333885252663</v>
+        <v>0.02386577828165852</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1495888085.203763</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1939328533.795727</v>
+        <v>1766369273.812633</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1284745143934923</v>
+        <v>0.1441837117008521</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03251892209490963</v>
+        <v>0.03354922300910837</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>969664301.587955</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4292884260.708502</v>
+        <v>4652314632.352248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1549377402470477</v>
+        <v>0.1608774649546189</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03983926920423083</v>
+        <v>0.04951450427521636</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2146442174.581068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3953234834.927596</v>
+        <v>2956927635.275557</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1550309455628912</v>
+        <v>0.1488356206286496</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04165352821649672</v>
+        <v>0.03262849189422255</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1976617426.568916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2514392999.528432</v>
+        <v>2349546823.680696</v>
       </c>
       <c r="F12" t="n">
-        <v>0.136051826773024</v>
+        <v>0.1477450346215594</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04473957564841623</v>
+        <v>0.03829253596072699</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1257196472.950094</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3612704795.360157</v>
+        <v>5295327173.375427</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07301511354041365</v>
+        <v>0.07563557277168095</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03091519382673337</v>
+        <v>0.0196233826449079</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1806352471.969825</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2786839498.27924</v>
+        <v>2519832610.541414</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1301797665617544</v>
+        <v>0.1538782747457356</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03086017935345894</v>
+        <v>0.03072894472219302</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1393419798.659037</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1161632242.273366</v>
+        <v>1738055513.350724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08509908343412008</v>
+        <v>0.06776583036852565</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04691630883411325</v>
+        <v>0.04393708266298013</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>580816129.5517061</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2532309428.189854</v>
+        <v>1989077904.984343</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08417370323064118</v>
+        <v>0.08106073098773797</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03248759597511516</v>
+        <v>0.03171330934188416</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1266154741.629288</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4167844325.445401</v>
+        <v>3659344900.76705</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1176704850667911</v>
+        <v>0.1486338136986675</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03528581572200686</v>
+        <v>0.04968953856523223</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2083922188.673085</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3205350261.119174</v>
+        <v>3422142603.438041</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1830220074210423</v>
+        <v>0.1767295039845565</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02526237389127138</v>
+        <v>0.03213827324656139</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1602675145.593247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>995657910.1094739</v>
+        <v>1268549162.752767</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1589105468777905</v>
+        <v>0.1172288588618758</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02391017892813664</v>
+        <v>0.01916945762747817</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>497828982.904941</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2634630872.049941</v>
+        <v>2307323226.655311</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1424274419925565</v>
+        <v>0.1467758458983595</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03125908421085416</v>
+        <v>0.02764621360501049</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1317315394.335248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2485245982.458766</v>
+        <v>2100228781.990627</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08772899282051837</v>
+        <v>0.1005968219655196</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03327462785985832</v>
+        <v>0.03857097142575558</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1242622980.454305</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3123199943.323472</v>
+        <v>3230851284.956988</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08836256243308795</v>
+        <v>0.1265676329286186</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0388791023359766</v>
+        <v>0.04199218247928253</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1561600025.49701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1061103145.437219</v>
+        <v>1416405366.457051</v>
       </c>
       <c r="F23" t="n">
-        <v>0.181382762790044</v>
+        <v>0.1119992360997509</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04589657246858841</v>
+        <v>0.03972311731296573</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>530551632.2811447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4120288034.80454</v>
+        <v>2576827111.463486</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1391284441231525</v>
+        <v>0.1426955191261672</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02938717946752595</v>
+        <v>0.03120819466464088</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2060143976.900422</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1312261455.170081</v>
+        <v>954387615.4523269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190927537316546</v>
+        <v>0.07869050810860465</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02147340847887304</v>
+        <v>0.02541593112266598</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>656130719.2671088</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1162160628.0515</v>
+        <v>1303151401.393903</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1155262283120196</v>
+        <v>0.1200450354031798</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03379042136494707</v>
+        <v>0.02744804673531884</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>581080325.4190565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3912046417.390073</v>
+        <v>3927293987.836868</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1281479360658177</v>
+        <v>0.1444290867615716</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0259312492281975</v>
+        <v>0.0258600434592783</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1956023222.863403</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2383120139.902831</v>
+        <v>3368390655.050935</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1219500491891694</v>
+        <v>0.1067823203246713</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03217329096059207</v>
+        <v>0.03287803333208645</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1191560027.209476</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5059849247.473327</v>
+        <v>4384000440.420433</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1442913130714547</v>
+        <v>0.1237892517477404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02988190618910434</v>
+        <v>0.03582178618362934</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2529924566.637774</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1844562138.990539</v>
+        <v>2295331698.779037</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1278824635423451</v>
+        <v>0.09784233498498428</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03403464665182134</v>
+        <v>0.03853175202521311</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>922281088.9198253</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1045525104.150415</v>
+        <v>1239926985.783626</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1038376593878453</v>
+        <v>0.09443253342972427</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03438271084262572</v>
+        <v>0.05260039444184614</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>522762539.569069</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1782041322.673897</v>
+        <v>1361372092.489442</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1136307328119626</v>
+        <v>0.1035073755835396</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03613904174177106</v>
+        <v>0.02442534949306814</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>891020787.5921434</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1901492332.176321</v>
+        <v>2127785010.333413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1696390459655047</v>
+        <v>0.178249077565114</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04292407335975921</v>
+        <v>0.0490557204488288</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>950746254.9326681</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>984710819.7897912</v>
+        <v>1470722950.618659</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08911567778116609</v>
+        <v>0.1178180707348616</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02258632484106035</v>
+        <v>0.0256673306142162</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>492355449.9795271</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>969473909.4094428</v>
+        <v>1151284544.000518</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08838991255078571</v>
+        <v>0.07688455744811527</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04214467170510539</v>
+        <v>0.04113665621472676</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>484736979.6648718</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2979865776.572454</v>
+        <v>2885602090.311088</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1745664769529691</v>
+        <v>0.1602908164792585</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01985125585638132</v>
+        <v>0.02751041787536753</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1489932871.395598</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2806797681.885151</v>
+        <v>2560048974.534887</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0729073462733642</v>
+        <v>0.08928941067336713</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02867913812316737</v>
+        <v>0.03633356361671991</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1403398978.81884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2026652235.544858</v>
+        <v>1443756308.590462</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1173094989298626</v>
+        <v>0.1147813416567245</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03920955871065718</v>
+        <v>0.02863473450524317</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1013326092.154023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1486659149.403584</v>
+        <v>1378722758.849447</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1344575685443056</v>
+        <v>0.1200805235338869</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03195519126059128</v>
+        <v>0.02013047841876641</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>743329646.7452204</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1724127077.922365</v>
+        <v>1469030152.966436</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1056723896679895</v>
+        <v>0.1537002819940977</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04457544435945245</v>
+        <v>0.04445318207096937</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>862063448.621977</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2291408934.064071</v>
+        <v>2071263251.555813</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1481268431667599</v>
+        <v>0.1060291133687662</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03763013218532545</v>
+        <v>0.04578253424583323</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1145704512.34948</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4183144491.325605</v>
+        <v>4043060331.481039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.119435005225008</v>
+        <v>0.07747260525780399</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03092403849955273</v>
+        <v>0.03800078234183613</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2091572287.203885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2071082743.406424</v>
+        <v>2236090108.946676</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1554197871573802</v>
+        <v>0.1848648842937677</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02005378246292578</v>
+        <v>0.02333379032689827</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1035541463.064198</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2316151593.883176</v>
+        <v>1467669003.117474</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06532516183204799</v>
+        <v>0.07550721070465093</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02780464617230001</v>
+        <v>0.02822541202177976</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1158075965.868142</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2139606827.783434</v>
+        <v>1975187859.673924</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1900890470527856</v>
+        <v>0.1419626156269432</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04913338023828208</v>
+        <v>0.04672970886393574</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1069803418.49038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5315612014.42311</v>
+        <v>3623998577.502491</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1376203142552649</v>
+        <v>0.1629495109346074</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05904832142221708</v>
+        <v>0.05776310181585916</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2657806051.735011</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4486260394.107047</v>
+        <v>3669713356.205307</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1353559618483122</v>
+        <v>0.1947843416390512</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05462431622525873</v>
+        <v>0.03746348385792623</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2243130223.426152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4392427699.181324</v>
+        <v>3639321377.432001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1004503721853349</v>
+        <v>0.106873194853709</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03291931007657625</v>
+        <v>0.03274594137999656</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2196213860.827527</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1801362371.403727</v>
+        <v>1408856086.391121</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1253271183651733</v>
+        <v>0.1807436253763013</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04308909888687954</v>
+        <v>0.02892846988486675</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>900681170.3746736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2629454505.159924</v>
+        <v>3789240069.572687</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1296385858634383</v>
+        <v>0.162697404170247</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04766336467933954</v>
+        <v>0.04422098091750722</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1314727338.553578</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1400628247.804735</v>
+        <v>1217025964.52116</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1579525151868279</v>
+        <v>0.1677832784997257</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04816375136148612</v>
+        <v>0.04371935126916267</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>700314142.6644078</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5127877571.59647</v>
+        <v>4816758276.593934</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1187526803552749</v>
+        <v>0.08421336528512602</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04969389069833024</v>
+        <v>0.04838585143588109</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2563938775.55889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3307670809.428292</v>
+        <v>2507835887.607202</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1333333427468157</v>
+        <v>0.1691848962929074</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02318645536792128</v>
+        <v>0.03527956609725145</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1653835415.508499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4059614842.07229</v>
+        <v>3959223676.434375</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1053777814143495</v>
+        <v>0.1427843950653268</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03943482172992093</v>
+        <v>0.03972765375009017</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2029807489.344441</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3676803740.011002</v>
+        <v>4015023752.038995</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2242065252215462</v>
+        <v>0.2064808849584138</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03042038916612249</v>
+        <v>0.02318214100692092</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1838401830.300018</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1879839264.536705</v>
+        <v>1680016576.15562</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1066885981211344</v>
+        <v>0.1200689225470868</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05788338378362572</v>
+        <v>0.04078120951210183</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>939919618.0471607</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2825796355.868472</v>
+        <v>4208797383.269949</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1834481665814654</v>
+        <v>0.1681685512440876</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02698008658620034</v>
+        <v>0.02572069121583545</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1412898167.393415</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1407649616.160409</v>
+        <v>1164568949.217437</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1967239988344835</v>
+        <v>0.1998620562679338</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03118014954114333</v>
+        <v>0.02416198564813005</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>703824847.2935483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3597824553.418602</v>
+        <v>3719791476.110996</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1160059161519518</v>
+        <v>0.1191359144608981</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0396602848777925</v>
+        <v>0.04887839439947559</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1798912271.681602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2655029806.585863</v>
+        <v>3504232788.479698</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1511829830760989</v>
+        <v>0.1867802888082117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03168865941234318</v>
+        <v>0.02027228886357714</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1327514937.170274</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2931811454.132555</v>
+        <v>2916685888.871251</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1690203309102853</v>
+        <v>0.1502191122725131</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02777834007105219</v>
+        <v>0.02007454633793348</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1465905713.538205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1492922467.796659</v>
+        <v>1475958285.665447</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1630239827983683</v>
+        <v>0.1813750374663586</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03665854607923569</v>
+        <v>0.03235712780431763</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>746461215.4849451</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3961599369.755761</v>
+        <v>5106596228.177284</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09584899313050925</v>
+        <v>0.09041588644891439</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03131929294318255</v>
+        <v>0.04433912930602652</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1980799748.525533</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4669458664.789196</v>
+        <v>4384725380.687239</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1257140720715136</v>
+        <v>0.1683496519680167</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02966037801113355</v>
+        <v>0.0332935810866476</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2334729415.017075</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5668751297.480227</v>
+        <v>5884583692.978705</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1565187667620888</v>
+        <v>0.1572831526817607</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02489498434136141</v>
+        <v>0.03078005131980175</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2834375567.360555</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3833980609.880343</v>
+        <v>3566389692.804234</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1477800043387725</v>
+        <v>0.1081153066977813</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0372176991478825</v>
+        <v>0.04369293966021977</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1916990269.211103</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2431833330.278825</v>
+        <v>3039537624.466506</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08443093218088381</v>
+        <v>0.08088373621938071</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03814752367115711</v>
+        <v>0.0319185660517335</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1215916731.139147</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4247025469.468546</v>
+        <v>4665774593.871569</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1027091860893065</v>
+        <v>0.1268791517370751</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04388396651862986</v>
+        <v>0.04743300658621845</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2123512745.241972</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1581993595.684969</v>
+        <v>1547479156.067765</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1459828001477229</v>
+        <v>0.1174471274773969</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03799026774003322</v>
+        <v>0.05815681349631319</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>790996748.400328</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2546771024.885671</v>
+        <v>3219309453.398542</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08044537372530612</v>
+        <v>0.07557574650921478</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04303889696082328</v>
+        <v>0.03102023888110846</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1273385459.625625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4274352469.697382</v>
+        <v>4114088537.043529</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1366141920142477</v>
+        <v>0.1848410974456635</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02226939333496622</v>
+        <v>0.02251861118853222</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2137176286.062109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1980976092.925432</v>
+        <v>1959285454.4963</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1037941805159487</v>
+        <v>0.1027529201060464</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04840518749695839</v>
+        <v>0.03462736141477236</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>990487995.5245738</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3029364882.119014</v>
+        <v>2561148115.374565</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1025451348403018</v>
+        <v>0.1069665261287006</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04376157358993401</v>
+        <v>0.04369519045840974</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1514682434.002074</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3635083789.792934</v>
+        <v>3099830726.121462</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1678745303032329</v>
+        <v>0.1822396162621989</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0349627040774312</v>
+        <v>0.02495147752569341</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1817541905.043892</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2034447316.626791</v>
+        <v>2286589556.627574</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1332153688020953</v>
+        <v>0.1606994460517044</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0243808124879866</v>
+        <v>0.03283736371446348</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1017223618.817137</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3332261662.153955</v>
+        <v>4129966096.063679</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1060959270147128</v>
+        <v>0.1207615146719381</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03006571494234051</v>
+        <v>0.0231750145257964</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1666130787.430643</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1685853037.462018</v>
+        <v>1769286448.057853</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1733851342760737</v>
+        <v>0.1206611768272205</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01931605109551464</v>
+        <v>0.03068436602436404</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>842926533.5122868</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4243401962.999772</v>
+        <v>4326149332.103532</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1290775281721685</v>
+        <v>0.1285744218326761</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04514691299476189</v>
+        <v>0.03583978752667403</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2121700929.444292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1362253957.789797</v>
+        <v>1455663197.725357</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1379763536521722</v>
+        <v>0.1248095334085215</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02915508596974731</v>
+        <v>0.0323585219221391</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>681126988.6892545</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4635791379.578074</v>
+        <v>4571292538.111171</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09079858752435879</v>
+        <v>0.07706718027551529</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02660913244577267</v>
+        <v>0.03200759599042718</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2317895720.497278</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3560521807.088405</v>
+        <v>4969487669.536468</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09173234352609215</v>
+        <v>0.1084682498301112</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02171252325924376</v>
+        <v>0.03142248373369198</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1780260850.059144</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3986772788.009808</v>
+        <v>5066536286.55549</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1350334740314167</v>
+        <v>0.1935785925163336</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02642531254550201</v>
+        <v>0.01962249135774514</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1993386434.065483</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2440310958.842126</v>
+        <v>1982329190.689343</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1325270422726229</v>
+        <v>0.1082904099436385</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02766314491732749</v>
+        <v>0.03683211519420064</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1220155519.232546</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2494053896.839518</v>
+        <v>2278522945.404325</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1070268290926356</v>
+        <v>0.1095531844958234</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03546959008635388</v>
+        <v>0.04850667612537797</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1247026880.563585</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2551590902.079684</v>
+        <v>3467973922.636219</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1272781457577012</v>
+        <v>0.1391848913312</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04306499536686641</v>
+        <v>0.03880858235800522</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1275795461.334825</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2578341603.771255</v>
+        <v>2597184273.250241</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1179013392887978</v>
+        <v>0.1444892871799249</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01985378352810179</v>
+        <v>0.01686621265497631</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1289170909.579612</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1469443097.70886</v>
+        <v>1118310800.621576</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1167514159566236</v>
+        <v>0.1212288125963226</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03952003139232121</v>
+        <v>0.03798155398332551</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>734721673.2083191</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2266541928.606561</v>
+        <v>2376160917.33709</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1456298932020027</v>
+        <v>0.1351997244984519</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03960940162689374</v>
+        <v>0.03858635874217329</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1133270921.79064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3460981502.764248</v>
+        <v>2942492620.844902</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1098852416364106</v>
+        <v>0.1315166302845857</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03917883414527702</v>
+        <v>0.03167528244495491</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1730490755.311892</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1499426978.895633</v>
+        <v>2035366459.480688</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1221326298487843</v>
+        <v>0.1293668030854613</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04313599547781659</v>
+        <v>0.04000163905037527</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>749713467.6649435</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2043808176.382942</v>
+        <v>1564648623.177478</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1299365216406914</v>
+        <v>0.1599169053745905</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05040413804400641</v>
+        <v>0.04272128488376555</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1021904054.145684</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2039622167.365034</v>
+        <v>2929493125.556589</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1060999521260814</v>
+        <v>0.10117243085627</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04099671882110999</v>
+        <v>0.03312555527188316</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1019811032.575991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4763565806.633727</v>
+        <v>4177843801.717917</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0997340905795297</v>
+        <v>0.0962951622213819</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04693857617590891</v>
+        <v>0.03417677738892695</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2381782854.253132</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1898577162.914158</v>
+        <v>2225632704.243535</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1671686237440162</v>
+        <v>0.1209096880903898</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03172159185018932</v>
+        <v>0.03086077011374976</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>949288566.2572922</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2784956751.313962</v>
+        <v>2528696321.47802</v>
       </c>
       <c r="F95" t="n">
-        <v>0.137931828240817</v>
+        <v>0.1119912560342861</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03272927899488291</v>
+        <v>0.04680776599304504</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1392478390.702879</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2264709563.820081</v>
+        <v>2231219664.6802</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1077017830353695</v>
+        <v>0.08613867541204942</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0328252898168104</v>
+        <v>0.03137348341319342</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1132354740.36098</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4728818039.858311</v>
+        <v>4557196629.59337</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1680231637827157</v>
+        <v>0.1377712619057159</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02723050200817464</v>
+        <v>0.02420353125962366</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2364409134.495702</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3787500339.489137</v>
+        <v>3059061809.474884</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1199416650845419</v>
+        <v>0.1064774590553206</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03007970767303446</v>
+        <v>0.02821489380815683</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1893750207.504936</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3399054122.85564</v>
+        <v>2382524721.211363</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1392060543993859</v>
+        <v>0.1360370565366273</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02873975481636418</v>
+        <v>0.0275613794837329</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1699527076.063055</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4545372376.454228</v>
+        <v>4479802946.577675</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1103314900944708</v>
+        <v>0.1432988794187424</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02572486116308734</v>
+        <v>0.02781517164644884</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2272686302.060187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3465305897.594891</v>
+        <v>2778379821.741485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1473220227559886</v>
+        <v>0.2196607219900504</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05285063347922837</v>
+        <v>0.05397282287872039</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1732653099.06307</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_13.xlsx
+++ b/output/fit_clients/fit_round_13.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2162715869.089673</v>
+        <v>2355186444.382056</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104426350184182</v>
+        <v>0.07345460193524306</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03406272401583172</v>
+        <v>0.03107893315099908</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2448165395.63764</v>
+        <v>1882273197.494919</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1392199432682245</v>
+        <v>0.1192783888044506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04734483237308896</v>
+        <v>0.03421425999120226</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3956542567.69032</v>
+        <v>3352227772.856853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1604877909222654</v>
+        <v>0.1622963081068184</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02307567968570255</v>
+        <v>0.02478577354922881</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3865796356.330954</v>
+        <v>3468945334.37194</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08338282630749221</v>
+        <v>0.0860122060513092</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04693262998887194</v>
+        <v>0.0309139696259435</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2217205358.906418</v>
+        <v>2081960860.741033</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1479592368315834</v>
+        <v>0.09374802107086433</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05479937410495677</v>
+        <v>0.04198880633352395</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2797184924.17574</v>
+        <v>3123694919.496417</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06591531145855907</v>
+        <v>0.06551439700699004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03996354294352483</v>
+        <v>0.04494627684464597</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2870341719.76129</v>
+        <v>3644362979.49257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2140594348592587</v>
+        <v>0.2190672640482738</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02386577828165852</v>
+        <v>0.02457275397919012</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1766369273.812633</v>
+        <v>1901987702.620611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1441837117008521</v>
+        <v>0.1629462234696467</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03354922300910837</v>
+        <v>0.02845599757978123</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4652314632.352248</v>
+        <v>5738380811.637056</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1608774649546189</v>
+        <v>0.1864166021411764</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04951450427521636</v>
+        <v>0.04688650899180689</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2956927635.275557</v>
+        <v>3597967920.373618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1488356206286496</v>
+        <v>0.1704510708131665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03262849189422255</v>
+        <v>0.04010866538346974</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2349546823.680696</v>
+        <v>2347967376.292455</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1477450346215594</v>
+        <v>0.1539973082986848</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03829253596072699</v>
+        <v>0.03750687184391261</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5295327173.375427</v>
+        <v>5037943656.373387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07563557277168095</v>
+        <v>0.08935000445359853</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0196233826449079</v>
+        <v>0.02867774219890857</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2519832610.541414</v>
+        <v>3533460846.781029</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1538782747457356</v>
+        <v>0.1798833350748689</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03072894472219302</v>
+        <v>0.02967005460540663</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1738055513.350724</v>
+        <v>1297260624.849741</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06776583036852565</v>
+        <v>0.09215278907683268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04393708266298013</v>
+        <v>0.04091555841856737</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1989077904.984343</v>
+        <v>2892408046.312487</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08106073098773797</v>
+        <v>0.08446090395946738</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03171330934188416</v>
+        <v>0.03415533534765815</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3659344900.76705</v>
+        <v>5293731435.167718</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1486338136986675</v>
+        <v>0.1584009646786275</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04968953856523223</v>
+        <v>0.03909789277164189</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3422142603.438041</v>
+        <v>2984596141.097713</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1767295039845565</v>
+        <v>0.1708552635453774</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03213827324656139</v>
+        <v>0.02643729362363817</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1268549162.752767</v>
+        <v>1208429860.744766</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1172288588618758</v>
+        <v>0.1655102778914018</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01916945762747817</v>
+        <v>0.0211185273472185</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2307323226.655311</v>
+        <v>2330110204.418882</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1467758458983595</v>
+        <v>0.1457795136985224</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02764621360501049</v>
+        <v>0.02041955765321014</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2100228781.990627</v>
+        <v>2145593426.657292</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1005968219655196</v>
+        <v>0.09035710486069989</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03857097142575558</v>
+        <v>0.04557985544374683</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3230851284.956988</v>
+        <v>3144904300.972647</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1265676329286186</v>
+        <v>0.09802693320735467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04199218247928253</v>
+        <v>0.05443040006093421</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1416405366.457051</v>
+        <v>1144844271.184704</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1119992360997509</v>
+        <v>0.1307143338774069</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03972311731296573</v>
+        <v>0.0470717975739533</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2576827111.463486</v>
+        <v>3668938519.577671</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426955191261672</v>
+        <v>0.0958712590308278</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03120819466464088</v>
+        <v>0.03395019576358258</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>954387615.4523269</v>
+        <v>1393082295.500193</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07869050810860465</v>
+        <v>0.09448847891634948</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02541593112266598</v>
+        <v>0.02644450455658526</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1303151401.393903</v>
+        <v>1153271740.895714</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1200450354031798</v>
+        <v>0.1162565635887872</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02744804673531884</v>
+        <v>0.02809066889319635</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3927293987.836868</v>
+        <v>4426191354.417902</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1444290867615716</v>
+        <v>0.1455603344158885</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0258600434592783</v>
+        <v>0.01736726420953963</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3368390655.050935</v>
+        <v>2983704689.694781</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1067823203246713</v>
+        <v>0.1363131470362006</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03287803333208645</v>
+        <v>0.04966821942140084</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4384000440.420433</v>
+        <v>4213735031.073674</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1237892517477404</v>
+        <v>0.1331343838360065</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03582178618362934</v>
+        <v>0.03758672443186835</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2295331698.779037</v>
+        <v>2179785111.688011</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09784233498498428</v>
+        <v>0.128640221871612</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03853175202521311</v>
+        <v>0.02906508108974223</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1239926985.783626</v>
+        <v>1059815236.210943</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09443253342972427</v>
+        <v>0.07106047356757719</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05260039444184614</v>
+        <v>0.05161154750940276</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1361372092.489442</v>
+        <v>1241400767.175384</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1035073755835396</v>
+        <v>0.1039305015925579</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02442534949306814</v>
+        <v>0.02635618191404874</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2127785010.333413</v>
+        <v>2145560780.599602</v>
       </c>
       <c r="F33" t="n">
-        <v>0.178249077565114</v>
+        <v>0.1495904580926408</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0490557204488288</v>
+        <v>0.03957652774683158</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1470722950.618659</v>
+        <v>946805866.2528903</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1178180707348616</v>
+        <v>0.1001464463058435</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0256673306142162</v>
+        <v>0.02700880792717884</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1151284544.000518</v>
+        <v>864901396.8358922</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07688455744811527</v>
+        <v>0.08378657236782819</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04113665621472676</v>
+        <v>0.03284514465635296</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2885602090.311088</v>
+        <v>2913527795.798536</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1602908164792585</v>
+        <v>0.1604724476382933</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02751041787536753</v>
+        <v>0.01993117037531419</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2560048974.534887</v>
+        <v>1830465701.982211</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08928941067336713</v>
+        <v>0.07852316538086153</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03633356361671991</v>
+        <v>0.03263240102165438</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1443756308.590462</v>
+        <v>1762871553.99947</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1147813416567245</v>
+        <v>0.1001829888400164</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02863473450524317</v>
+        <v>0.02649218094230018</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1378722758.849447</v>
+        <v>1686994161.693511</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1200805235338869</v>
+        <v>0.1555888202055067</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02013047841876641</v>
+        <v>0.02611086984308304</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1469030152.966436</v>
+        <v>1188356586.498238</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1537002819940977</v>
+        <v>0.1279150646509432</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04445318207096937</v>
+        <v>0.0493641529372074</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2071263251.555813</v>
+        <v>2485003032.660018</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1060291133687662</v>
+        <v>0.1323133225598591</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04578253424583323</v>
+        <v>0.03694116378085015</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4043060331.481039</v>
+        <v>2903098235.507461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07747260525780399</v>
+        <v>0.1104899528977695</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03800078234183613</v>
+        <v>0.03995024249009638</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2236090108.946676</v>
+        <v>3044089796.575488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1848648842937677</v>
+        <v>0.1447478118734963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02333379032689827</v>
+        <v>0.02157243169892154</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1467669003.117474</v>
+        <v>1604906920.708203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07550721070465093</v>
+        <v>0.09806626280000154</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02822541202177976</v>
+        <v>0.028169032876734</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1975187859.673924</v>
+        <v>2367825461.592926</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1419626156269432</v>
+        <v>0.1245956583089975</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04672970886393574</v>
+        <v>0.04522435969570966</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3623998577.502491</v>
+        <v>3856699699.511444</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1629495109346074</v>
+        <v>0.1320340669955143</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05776310181585916</v>
+        <v>0.06095929364386467</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3669713356.205307</v>
+        <v>3295556639.787496</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1947843416390512</v>
+        <v>0.1247211143488168</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03746348385792623</v>
+        <v>0.03929078834997149</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3639321377.432001</v>
+        <v>4148996132.626841</v>
       </c>
       <c r="F48" t="n">
-        <v>0.106873194853709</v>
+        <v>0.06678950786076061</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03274594137999656</v>
+        <v>0.03439614384644525</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1408856086.391121</v>
+        <v>1419683170.288851</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1807436253763013</v>
+        <v>0.1534617902490977</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02892846988486675</v>
+        <v>0.02850764561540493</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3789240069.572687</v>
+        <v>2547713423.11308</v>
       </c>
       <c r="F50" t="n">
-        <v>0.162697404170247</v>
+        <v>0.1368639624058964</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04422098091750722</v>
+        <v>0.04256979354191383</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1217025964.52116</v>
+        <v>1463940705.44526</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1677832784997257</v>
+        <v>0.1938718581520885</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04371935126916267</v>
+        <v>0.05103292655123101</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4816758276.593934</v>
+        <v>5180811839.517177</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08421336528512602</v>
+        <v>0.1147903823728345</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04838585143588109</v>
+        <v>0.05186414884877542</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2507835887.607202</v>
+        <v>2718656272.485278</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1691848962929074</v>
+        <v>0.2007079693504117</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03527956609725145</v>
+        <v>0.02859852286706384</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3959223676.434375</v>
+        <v>4107521613.183761</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1427843950653268</v>
+        <v>0.1277146273858891</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03972765375009017</v>
+        <v>0.03725509956651406</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4015023752.038995</v>
+        <v>3885286118.914783</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2064808849584138</v>
+        <v>0.2143439397303045</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02318214100692092</v>
+        <v>0.03251595039293899</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1680016576.15562</v>
+        <v>1774454434.251509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1200689225470868</v>
+        <v>0.1005843295928245</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04078120951210183</v>
+        <v>0.03646326550364535</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4208797383.269949</v>
+        <v>3357869215.32996</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1681685512440876</v>
+        <v>0.1206967634881833</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02572069121583545</v>
+        <v>0.02114583569676262</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1164568949.217437</v>
+        <v>1869891724.026478</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1998620562679338</v>
+        <v>0.1625469690854035</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02416198564813005</v>
+        <v>0.02930856071134051</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3719791476.110996</v>
+        <v>4025664652.900615</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1191359144608981</v>
+        <v>0.1199388498162674</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04887839439947559</v>
+        <v>0.0464738745731369</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3504232788.479698</v>
+        <v>2695957052.012007</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1867802888082117</v>
+        <v>0.1781625013969406</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02027228886357714</v>
+        <v>0.02129938893137064</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2916685888.871251</v>
+        <v>2991999713.292467</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1502191122725131</v>
+        <v>0.1637836232410934</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02007454633793348</v>
+        <v>0.02209974236840798</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1475958285.665447</v>
+        <v>1736492151.954971</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1813750374663586</v>
+        <v>0.1865027788137488</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03235712780431763</v>
+        <v>0.03015479918451376</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5106596228.177284</v>
+        <v>3417021018.449996</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09041588644891439</v>
+        <v>0.09550397855850554</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04433912930602652</v>
+        <v>0.03441282466696795</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4384725380.687239</v>
+        <v>4578367199.325556</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1683496519680167</v>
+        <v>0.1391396203521665</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0332935810866476</v>
+        <v>0.0308069708996584</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5884583692.978705</v>
+        <v>3794836312.029644</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1572831526817607</v>
+        <v>0.1254526425694957</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03078005131980175</v>
+        <v>0.0268928355483756</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3566389692.804234</v>
+        <v>4760639201.205101</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1081153066977813</v>
+        <v>0.1103894202248511</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04369293966021977</v>
+        <v>0.03725383672417069</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3039537624.466506</v>
+        <v>2481333823.0249</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08088373621938071</v>
+        <v>0.06818385458214521</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0319185660517335</v>
+        <v>0.03296014225090767</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4665774593.871569</v>
+        <v>4913994282.76085</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1268791517370751</v>
+        <v>0.1507317501191471</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04743300658621845</v>
+        <v>0.04107610822459808</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1547479156.067765</v>
+        <v>1742108582.257272</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1174471274773969</v>
+        <v>0.1305104256071631</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05815681349631319</v>
+        <v>0.05656222643802437</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3219309453.398542</v>
+        <v>2287369342.182901</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07557574650921478</v>
+        <v>0.06415367318040836</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03102023888110846</v>
+        <v>0.0362445784043736</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4114088537.043529</v>
+        <v>5535168775.450276</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1848410974456635</v>
+        <v>0.1633761522159815</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02251861118853222</v>
+        <v>0.03165142227840034</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1959285454.4963</v>
+        <v>2021524977.583274</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1027529201060464</v>
+        <v>0.07785381848762324</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03462736141477236</v>
+        <v>0.03319785444769371</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2561148115.374565</v>
+        <v>3290340512.351428</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1069665261287006</v>
+        <v>0.09358380606492719</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04369519045840974</v>
+        <v>0.04801177874308356</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3099830726.121462</v>
+        <v>3852208311.137009</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1822396162621989</v>
+        <v>0.1711584449983687</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02495147752569341</v>
+        <v>0.03231100306604009</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2286589556.627574</v>
+        <v>1588338468.658197</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1606994460517044</v>
+        <v>0.1575112761948793</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03283736371446348</v>
+        <v>0.03075983912546593</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4129966096.063679</v>
+        <v>3647078349.460945</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1207615146719381</v>
+        <v>0.1251894900279062</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0231750145257964</v>
+        <v>0.02321217345534937</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1769286448.057853</v>
+        <v>1773414076.015256</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1206611768272205</v>
+        <v>0.1193352413165152</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03068436602436404</v>
+        <v>0.0208261743429656</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4326149332.103532</v>
+        <v>3720659640.106895</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1285744218326761</v>
+        <v>0.128112167056632</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03583978752667403</v>
+        <v>0.04221395857694126</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1455663197.725357</v>
+        <v>1348102095.739222</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1248095334085215</v>
+        <v>0.1716927964098231</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0323585219221391</v>
+        <v>0.03657251644731865</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4571292538.111171</v>
+        <v>3756914873.836655</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07706718027551529</v>
+        <v>0.09330554905128925</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03200759599042718</v>
+        <v>0.02776594562289601</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4969487669.536468</v>
+        <v>3940082147.920549</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1084682498301112</v>
+        <v>0.09115532346074819</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03142248373369198</v>
+        <v>0.03030168084091563</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5066536286.55549</v>
+        <v>3909376373.144748</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1935785925163336</v>
+        <v>0.13341261923095</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01962249135774514</v>
+        <v>0.01860061415852558</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1982329190.689343</v>
+        <v>1713249563.845459</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1082904099436385</v>
+        <v>0.1439279070275937</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03683211519420064</v>
+        <v>0.03070659109906745</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2278522945.404325</v>
+        <v>1971152857.169151</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1095531844958234</v>
+        <v>0.08222174306045328</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04850667612537797</v>
+        <v>0.04915536722253523</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3467973922.636219</v>
+        <v>2222218801.302454</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1391848913312</v>
+        <v>0.1803678009289797</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03880858235800522</v>
+        <v>0.05022929928975805</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2597184273.250241</v>
+        <v>2600165356.298951</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1444892871799249</v>
+        <v>0.1632696377639293</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01686621265497631</v>
+        <v>0.02124409352144932</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1118310800.621576</v>
+        <v>1174191630.916888</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1212288125963226</v>
+        <v>0.1561240104473767</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03798155398332551</v>
+        <v>0.04310791813953327</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2376160917.33709</v>
+        <v>2811105573.09376</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1351997244984519</v>
+        <v>0.1097312629493988</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03858635874217329</v>
+        <v>0.02883674534525372</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2942492620.844902</v>
+        <v>2625754451.14142</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1315166302845857</v>
+        <v>0.1399714633300968</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03167528244495491</v>
+        <v>0.02842980737525971</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2035366459.480688</v>
+        <v>1761281238.981198</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1293668030854613</v>
+        <v>0.09443157458929549</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04000163905037527</v>
+        <v>0.03748680137110037</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1564648623.177478</v>
+        <v>1321711780.270081</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1599169053745905</v>
+        <v>0.1327419721251613</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04272128488376555</v>
+        <v>0.05302609932593066</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2929493125.556589</v>
+        <v>2882140212.562381</v>
       </c>
       <c r="F92" t="n">
-        <v>0.10117243085627</v>
+        <v>0.1100294832397179</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03312555527188316</v>
+        <v>0.04629742700609028</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4177843801.717917</v>
+        <v>3246253672.359159</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0962951622213819</v>
+        <v>0.1084261941988274</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03417677738892695</v>
+        <v>0.03384388458376504</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2225632704.243535</v>
+        <v>2513684454.688701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1209096880903898</v>
+        <v>0.104612755163809</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03086077011374976</v>
+        <v>0.03432642522512811</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2528696321.47802</v>
+        <v>3052976522.541067</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1119912560342861</v>
+        <v>0.1156321708663561</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04680776599304504</v>
+        <v>0.03395090778758457</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2231219664.6802</v>
+        <v>2322707923.532529</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08613867541204942</v>
+        <v>0.09657769902210665</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03137348341319342</v>
+        <v>0.03846888989400045</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4557196629.59337</v>
+        <v>3265312659.611877</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1377712619057159</v>
+        <v>0.1376234925080574</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02420353125962366</v>
+        <v>0.02439843465077521</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3059061809.474884</v>
+        <v>2910961692.754596</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1064774590553206</v>
+        <v>0.1261188345069606</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02821489380815683</v>
+        <v>0.02326882845568281</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2382524721.211363</v>
+        <v>2135994175.326833</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1360370565366273</v>
+        <v>0.1026512567695719</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0275613794837329</v>
+        <v>0.03298001453972058</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4479802946.577675</v>
+        <v>3642772288.370977</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1432988794187424</v>
+        <v>0.1392965689829723</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02781517164644884</v>
+        <v>0.01982454196336974</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2778379821.741485</v>
+        <v>2524115370.944096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2196607219900504</v>
+        <v>0.1804232989759674</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05397282287872039</v>
+        <v>0.04165203419421356</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_13.xlsx
+++ b/output/fit_clients/fit_round_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2355186444.382056</v>
+        <v>1703313435.241661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07345460193524306</v>
+        <v>0.1137447247300064</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03107893315099908</v>
+        <v>0.03128446205071447</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1882273197.494919</v>
+        <v>2563969513.396812</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1192783888044506</v>
+        <v>0.1112366245631276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03421425999120226</v>
+        <v>0.04729754812772216</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3352227772.856853</v>
+        <v>3745322888.187513</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1622963081068184</v>
+        <v>0.1123709711332633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02478577354922881</v>
+        <v>0.0304579542098165</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>185.186110346604</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3468945334.37194</v>
+        <v>3026892682.958224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0860122060513092</v>
+        <v>0.1044113287078567</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0309139696259435</v>
+        <v>0.03201807139534801</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2081960860.741033</v>
+        <v>2775194427.354269</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09374802107086433</v>
+        <v>0.1448351998197732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04198880633352395</v>
+        <v>0.03600990175023844</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3123694919.496417</v>
+        <v>2660092019.874382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06551439700699004</v>
+        <v>0.1006459725956464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04494627684464597</v>
+        <v>0.04547889595938125</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3644362979.49257</v>
+        <v>3585293470.321754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2190672640482738</v>
+        <v>0.2211499417439711</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02457275397919012</v>
+        <v>0.02279156142946192</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1901987702.620611</v>
+        <v>1633504121.054374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1629462234696467</v>
+        <v>0.1831735702496309</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02845599757978123</v>
+        <v>0.03621809824587788</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5738380811.637056</v>
+        <v>5019456510.819755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1864166021411764</v>
+        <v>0.19446431387802</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04688650899180689</v>
+        <v>0.03555916823230734</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.0964830312764</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3597967920.373618</v>
+        <v>4044885244.684277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1704510708131665</v>
+        <v>0.1364269370127764</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04010866538346974</v>
+        <v>0.04789928605205732</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>230.7837739705621</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2347967376.292455</v>
+        <v>2319419124.443152</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1539973082986848</v>
+        <v>0.1797793197514357</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03750687184391261</v>
+        <v>0.04780982288080558</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5037943656.373387</v>
+        <v>4114187006.484457</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08935000445359853</v>
+        <v>0.09599547066215948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02867774219890857</v>
+        <v>0.02366599783615851</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3533460846.781029</v>
+        <v>2703491839.22033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1798833350748689</v>
+        <v>0.1888609013727548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02967005460540663</v>
+        <v>0.04363728968005613</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>93.58665215403397</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1297260624.849741</v>
+        <v>1691041409.006438</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09215278907683268</v>
+        <v>0.0952531067156997</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04091555841856737</v>
+        <v>0.0337443028662588</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2892408046.312487</v>
+        <v>2389180382.542718</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08446090395946738</v>
+        <v>0.07595903548991972</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03415533534765815</v>
+        <v>0.04626766988656566</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5293731435.167718</v>
+        <v>3535741439.413806</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1584009646786275</v>
+        <v>0.1115716444427034</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03909789277164189</v>
+        <v>0.04785624429524542</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>151.217851291349</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2984596141.097713</v>
+        <v>2737422795.304588</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1708552635453774</v>
+        <v>0.1747100264577766</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02643729362363817</v>
+        <v>0.02836549094567806</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1208429860.744766</v>
+        <v>1180643269.279924</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1655102778914018</v>
+        <v>0.1918699645271624</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0211185273472185</v>
+        <v>0.0193765507778764</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2330110204.418882</v>
+        <v>2106581409.491194</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1457795136985224</v>
+        <v>0.11268726547089</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02041955765321014</v>
+        <v>0.02352143332861606</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2145593426.657292</v>
+        <v>2295024047.486659</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09035710486069989</v>
+        <v>0.09228742034351857</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04557985544374683</v>
+        <v>0.04175895321400241</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3144904300.972647</v>
+        <v>3266018903.207882</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09802693320735467</v>
+        <v>0.1218319170859744</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05443040006093421</v>
+        <v>0.04498411781654663</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1144844271.184704</v>
+        <v>1530547368.24419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1307143338774069</v>
+        <v>0.1689543066819364</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0470717975739533</v>
+        <v>0.05214177758828926</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3668938519.577671</v>
+        <v>3009006616.499625</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0958712590308278</v>
+        <v>0.1331635434835229</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03395019576358258</v>
+        <v>0.03543216737940006</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1393082295.500193</v>
+        <v>1328830566.690206</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09448847891634948</v>
+        <v>0.1091600084846345</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02644450455658526</v>
+        <v>0.02970411295542161</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1153271740.895714</v>
+        <v>1291400890.298348</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1162565635887872</v>
+        <v>0.07892268597747676</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02809066889319635</v>
+        <v>0.03566327139979581</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4426191354.417902</v>
+        <v>3751925530.059784</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1455603344158885</v>
+        <v>0.1330442150968961</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01736726420953963</v>
+        <v>0.02017064631676452</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>13</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2983704689.694781</v>
+        <v>2812855713.562452</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1363131470362006</v>
+        <v>0.1233987032833456</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04966821942140084</v>
+        <v>0.04840526721040379</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4213735031.073674</v>
+        <v>5304013971.94496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1331343838360065</v>
+        <v>0.144192518126396</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03758672443186835</v>
+        <v>0.04344790622110271</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.9891210908514</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2179785111.688011</v>
+        <v>2311488622.341514</v>
       </c>
       <c r="F30" t="n">
-        <v>0.128640221871612</v>
+        <v>0.1182938773459002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02906508108974223</v>
+        <v>0.03477771878265604</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1059815236.210943</v>
+        <v>1030810506.120887</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07106047356757719</v>
+        <v>0.07378276710960853</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05161154750940276</v>
+        <v>0.04931484902663698</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1241400767.175384</v>
+        <v>1832140602.500199</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1039305015925579</v>
+        <v>0.0828551673950642</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02635618191404874</v>
+        <v>0.0345317211728771</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2145560780.599602</v>
+        <v>2680349346.216138</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1495904580926408</v>
+        <v>0.1385989094845785</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03957652774683158</v>
+        <v>0.04672773152742139</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>946805866.2528903</v>
+        <v>1269500781.476744</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1001464463058435</v>
+        <v>0.1055670018494314</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02700880792717884</v>
+        <v>0.02418054061519103</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>864901396.8358922</v>
+        <v>1212780933.664782</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08378657236782819</v>
+        <v>0.1148227293592483</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03284514465635296</v>
+        <v>0.03055588643209074</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2913527795.798536</v>
+        <v>2807190050.354303</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1604724476382933</v>
+        <v>0.1187373052841509</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01993117037531419</v>
+        <v>0.01963930346031221</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1830465701.982211</v>
+        <v>2463234618.746774</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07852316538086153</v>
+        <v>0.06808200809262949</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03263240102165438</v>
+        <v>0.03701761718539604</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1762871553.99947</v>
+        <v>2100552431.760272</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1001829888400164</v>
+        <v>0.08029303541677026</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02649218094230018</v>
+        <v>0.03759901558288593</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1686994161.693511</v>
+        <v>1657496490.856558</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1555888202055067</v>
+        <v>0.156377175817191</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02611086984308304</v>
+        <v>0.03145687089530757</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1188356586.498238</v>
+        <v>1224937403.366433</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1279150646509432</v>
+        <v>0.1046450847533228</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0493641529372074</v>
+        <v>0.04651761908506741</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2485003032.660018</v>
+        <v>2054038074.976235</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1323133225598591</v>
+        <v>0.15314992531495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03694116378085015</v>
+        <v>0.03783942238995951</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2903098235.507461</v>
+        <v>3868005104.078274</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1104899528977695</v>
+        <v>0.1048684865568277</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03995024249009638</v>
+        <v>0.04454754772148355</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12</v>
+      </c>
+      <c r="K42" t="n">
+        <v>192.3228727083477</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3044089796.575488</v>
+        <v>2962792015.764462</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1447478118734963</v>
+        <v>0.1487625517615417</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02157243169892154</v>
+        <v>0.0240327852284178</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1604906920.708203</v>
+        <v>1609914696.664262</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09806626280000154</v>
+        <v>0.08106469096922468</v>
       </c>
       <c r="G44" t="n">
-        <v>0.028169032876734</v>
+        <v>0.02467722985189362</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2367825461.592926</v>
+        <v>1924498420.095037</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1245956583089975</v>
+        <v>0.1684658451546136</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04522435969570966</v>
+        <v>0.04303588828298747</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3856699699.511444</v>
+        <v>3623772195.355938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1320340669955143</v>
+        <v>0.1366073825312644</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06095929364386467</v>
+        <v>0.03904016990479218</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>172.7466337630387</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3295556639.787496</v>
+        <v>3402899705.943637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1247211143488168</v>
+        <v>0.1881478889913435</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03929078834997149</v>
+        <v>0.05034587353978638</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>13</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4148996132.626841</v>
+        <v>3454055852.463913</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06678950786076061</v>
+        <v>0.07049824607166071</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03439614384644525</v>
+        <v>0.03487727124184181</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>13</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1419683170.288851</v>
+        <v>1773688966.738444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1534617902490977</v>
+        <v>0.1253206085760948</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02850764561540493</v>
+        <v>0.04159706167677892</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2547713423.11308</v>
+        <v>3963575011.553308</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1368639624058964</v>
+        <v>0.1741335927679296</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04256979354191383</v>
+        <v>0.05351735562653591</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>13</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1463940705.44526</v>
+        <v>1542010427.278804</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1938718581520885</v>
+        <v>0.1953663660683842</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05103292655123101</v>
+        <v>0.04959249364125076</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5180811839.517177</v>
+        <v>3879977050.431749</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1147903823728345</v>
+        <v>0.1323464927824887</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05186414884877542</v>
+        <v>0.05124185525918507</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>13</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2718656272.485278</v>
+        <v>2850812870.362079</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2007079693504117</v>
+        <v>0.1377438714922086</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02859852286706384</v>
+        <v>0.02877072941795395</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4107521613.183761</v>
+        <v>4900019021.936616</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1277146273858891</v>
+        <v>0.161748098923765</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03725509956651406</v>
+        <v>0.04654423464315231</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>12</v>
+      </c>
+      <c r="K54" t="n">
+        <v>210.4041494446649</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3885286118.914783</v>
+        <v>3280393044.661382</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2143439397303045</v>
+        <v>0.1539168142898487</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03251595039293899</v>
+        <v>0.02496403698165161</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="n">
+        <v>121.5002273469965</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1774454434.251509</v>
+        <v>1393707124.301879</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1005843295928245</v>
+        <v>0.1255866822594851</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03646326550364535</v>
+        <v>0.03786194013146555</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3357869215.32996</v>
+        <v>4451344471.337349</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1206967634881833</v>
+        <v>0.1823404624429029</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02114583569676262</v>
+        <v>0.02453823174122845</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1869891724.026478</v>
+        <v>1352823938.322937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1625469690854035</v>
+        <v>0.1255088533183435</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02930856071134051</v>
+        <v>0.03279791726125422</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4025664652.900615</v>
+        <v>5083446244.977289</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1199388498162674</v>
+        <v>0.1145535065014336</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0464738745731369</v>
+        <v>0.0321845568455502</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="n">
+        <v>187.0998184874223</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2695957052.012007</v>
+        <v>3285363455.726092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1781625013969406</v>
+        <v>0.1341444721702023</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02129938893137064</v>
+        <v>0.02523571147916685</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2991999713.292467</v>
+        <v>2900735489.740494</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1637836232410934</v>
+        <v>0.1658197550962934</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02209974236840798</v>
+        <v>0.02342742682324077</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1736492151.954971</v>
+        <v>1354430275.099171</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1865027788137488</v>
+        <v>0.1406667241845833</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03015479918451376</v>
+        <v>0.03087936406015846</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3417021018.449996</v>
+        <v>3389930633.002859</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09550397855850554</v>
+        <v>0.09459957290383193</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03441282466696795</v>
+        <v>0.04112236469238485</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>13</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4578367199.325556</v>
+        <v>3647902770.038432</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1391396203521665</v>
+        <v>0.1314819956200143</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0308069708996584</v>
+        <v>0.02426621695185502</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3794836312.029644</v>
+        <v>4813739309.770253</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1254526425694957</v>
+        <v>0.1117525192142659</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0268928355483756</v>
+        <v>0.02947720600664909</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11</v>
+      </c>
+      <c r="J65" t="n">
+        <v>13</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.5734014173595</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4760639201.205101</v>
+        <v>3642119752.567277</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103894202248511</v>
+        <v>0.1509768124206233</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03725383672417069</v>
+        <v>0.04363441900583974</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
+        <v>13</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2481333823.0249</v>
+        <v>3011674047.928878</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06818385458214521</v>
+        <v>0.100119322335495</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03296014225090767</v>
+        <v>0.04235972075193428</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2835,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4913994282.76085</v>
+        <v>5837085004.32478</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1507317501191471</v>
+        <v>0.1306515182104623</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04107610822459808</v>
+        <v>0.0334395511916261</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>13</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1742108582.257272</v>
+        <v>2052552178.680866</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1305104256071631</v>
+        <v>0.1335815806760303</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05656222643802437</v>
+        <v>0.05438579605392983</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2287369342.182901</v>
+        <v>3192195491.613405</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06415367318040836</v>
+        <v>0.07411169872310257</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0362445784043736</v>
+        <v>0.04817865789934901</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2940,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5535168775.450276</v>
+        <v>4702015875.543197</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1633761522159815</v>
+        <v>0.1527773335692122</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03165142227840034</v>
+        <v>0.02937809524008906</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>13</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6208141369183</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2021524977.583274</v>
+        <v>1966388945.346885</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07785381848762324</v>
+        <v>0.07515747799295515</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03319785444769371</v>
+        <v>0.05203040319263084</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3290340512.351428</v>
+        <v>3052847563.244361</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09358380606492719</v>
+        <v>0.1090092091768591</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04801177874308356</v>
+        <v>0.04025242959678692</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3852208311.137009</v>
+        <v>3525009984.285055</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1711584449983687</v>
+        <v>0.1785882913842103</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03231100306604009</v>
+        <v>0.02492894846868314</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12</v>
+      </c>
+      <c r="K74" t="n">
+        <v>161.8227953832223</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1588338468.658197</v>
+        <v>1842181851.786328</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1575112761948793</v>
+        <v>0.1013608585653071</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03075983912546593</v>
+        <v>0.03682881831248625</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3647078349.460945</v>
+        <v>4143589866.414138</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1251894900279062</v>
+        <v>0.1251018489901584</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02321217345534937</v>
+        <v>0.02943524828562518</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>13</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1773414076.015256</v>
+        <v>1835569282.428321</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1193352413165152</v>
+        <v>0.1142640045157619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0208261743429656</v>
+        <v>0.02654873077954786</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3720659640.106895</v>
+        <v>3466931660.596588</v>
       </c>
       <c r="F78" t="n">
-        <v>0.128112167056632</v>
+        <v>0.1309771358899488</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04221395857694126</v>
+        <v>0.05173611655733307</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12</v>
+      </c>
+      <c r="K78" t="n">
+        <v>157.1667408882946</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1348102095.739222</v>
+        <v>1534300380.867348</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1716927964098231</v>
+        <v>0.1100639015957005</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03657251644731865</v>
+        <v>0.03166459129284914</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3756914873.836655</v>
+        <v>5141703523.744616</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09330554905128925</v>
+        <v>0.09118853123383039</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02776594562289601</v>
+        <v>0.02859267274344309</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.7012056251233</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3940082147.920549</v>
+        <v>4735775029.472116</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09115532346074819</v>
+        <v>0.1188216416551826</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03030168084091563</v>
+        <v>0.03230754571869116</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12</v>
+      </c>
+      <c r="K81" t="n">
+        <v>171.0220944078161</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3909376373.144748</v>
+        <v>4366666138.545129</v>
       </c>
       <c r="F82" t="n">
-        <v>0.13341261923095</v>
+        <v>0.1403998753212305</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01860061415852558</v>
+        <v>0.01843220505868718</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>13</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1713249563.845459</v>
+        <v>2239141217.832935</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1439279070275937</v>
+        <v>0.1098955357049389</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03070659109906745</v>
+        <v>0.04171736407843142</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1971152857.169151</v>
+        <v>2491154869.951359</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08222174306045328</v>
+        <v>0.1006275680473759</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04915536722253523</v>
+        <v>0.04094337831891344</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2222218801.302454</v>
+        <v>2828884367.590198</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1803678009289797</v>
+        <v>0.1462395448060005</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05022929928975805</v>
+        <v>0.04702134339540827</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12</v>
+      </c>
+      <c r="K85" t="n">
+        <v>110.4541790886341</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2600165356.298951</v>
+        <v>2096797975.616099</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1632696377639293</v>
+        <v>0.1596176950977612</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02124409352144932</v>
+        <v>0.02358201607905865</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1174191630.916888</v>
+        <v>1432855805.078006</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1561240104473767</v>
+        <v>0.1886075819490831</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04310791813953327</v>
+        <v>0.03353848585167653</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2811105573.09376</v>
+        <v>2845424491.674971</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1097312629493988</v>
+        <v>0.1113283505371106</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02883674534525372</v>
+        <v>0.0346332194768822</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2625754451.14142</v>
+        <v>3285348284.196231</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1399714633300968</v>
+        <v>0.1367450712919544</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02842980737525971</v>
+        <v>0.03304604801430661</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1761281238.981198</v>
+        <v>2075733831.929302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09443157458929549</v>
+        <v>0.1304290746787698</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03748680137110037</v>
+        <v>0.04761210272530694</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1321711780.270081</v>
+        <v>1632124362.130742</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1327419721251613</v>
+        <v>0.1278191471055286</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05302609932593066</v>
+        <v>0.06036868813039676</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2882140212.562381</v>
+        <v>2371280037.338668</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1100294832397179</v>
+        <v>0.09100324896890886</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04629742700609028</v>
+        <v>0.0361591028441719</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3246253672.359159</v>
+        <v>4231660323.911122</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1084261941988274</v>
+        <v>0.1107995572989197</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03384388458376504</v>
+        <v>0.04810806113206168</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.4047391328674</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2513684454.688701</v>
+        <v>2041954376.493825</v>
       </c>
       <c r="F94" t="n">
-        <v>0.104612755163809</v>
+        <v>0.1386575581642525</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03432642522512811</v>
+        <v>0.03356389173887531</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3052976522.541067</v>
+        <v>2572920811.783935</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1156321708663561</v>
+        <v>0.1026835396329699</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03395090778758457</v>
+        <v>0.0441984847774446</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2322707923.532529</v>
+        <v>2120934564.001738</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09657769902210665</v>
+        <v>0.1183052354803421</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03846888989400045</v>
+        <v>0.03720289177681646</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3265312659.611877</v>
+        <v>5265653787.575098</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1376234925080574</v>
+        <v>0.169150268100538</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02439843465077521</v>
+        <v>0.01803936260547164</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.5452633458859</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2910961692.754596</v>
+        <v>3481982893.273739</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1261188345069606</v>
+        <v>0.08474784584393097</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02326882845568281</v>
+        <v>0.03221156910463405</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>13</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2135994175.326833</v>
+        <v>2413738182.932295</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1026512567695719</v>
+        <v>0.1223648098517569</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03298001453972058</v>
+        <v>0.03393152585326102</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3642772288.370977</v>
+        <v>2929762093.43621</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1392965689829723</v>
+        <v>0.1601058133666972</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01982454196336974</v>
+        <v>0.02021872638598521</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>11</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2524115370.944096</v>
+        <v>3141965262.37058</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1804232989759674</v>
+        <v>0.1876137196757864</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04165203419421356</v>
+        <v>0.03734764779636098</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
